--- a/webScrapping/Influencer_with_links.xlsx
+++ b/webScrapping/Influencer_with_links.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="456">
   <si>
     <t>name</t>
   </si>
@@ -19,18 +19,27 @@
     <t>id</t>
   </si>
   <si>
+    <t>Profile pic link</t>
+  </si>
+  <si>
     <t>philCohen</t>
   </si>
   <si>
     <t>https://www.instagram.com/thepacman82/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/123637548_3757979494212159_2519670714713078999_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=X0nxzIeFNycAX_7062X&amp;oh=c521c1b4d4ba1953641614521cf4220a&amp;oe=606B49DF</t>
+  </si>
+  <si>
     <t>urvashirautela</t>
   </si>
   <si>
     <t>https://www.instagram.com/urvashirautela/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/75265139_761869434310463_3402933658414219264_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=67zafPpVWS8AX8pJrjT&amp;oh=cbfb39183572ec45ffe0b6cbc45db3ed&amp;oe=606D8100</t>
+  </si>
+  <si>
     <t>Danielle Bernstein</t>
   </si>
   <si>
@@ -43,162 +52,243 @@
     <t>https://www.instagram.com/gabalabbb/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/118286163_304542473948720_8079115963535419231_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Off8gK9LQIYAX8hSXX0&amp;oh=912806e2822640e874f667def29cd207&amp;oe=606C8117</t>
+  </si>
+  <si>
     <t>zaarayesmin</t>
   </si>
   <si>
     <t>https://www.instagram.com/zaarayesmin/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/122024950_797311651030710_9010962237354129618_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=wo_jrT9VF-oAX9lqfZi&amp;oh=2f969b768ac594c00cd0958c434d4b1e&amp;oe=606DEA24</t>
+  </si>
+  <si>
     <t>zendaya</t>
   </si>
   <si>
     <t>https://www.instagram.com/zendaya/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120041860_253713912544371_4333096554404876950_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=spIuHtgWr_MAX_QZEUd&amp;oh=e3395a7263fbe7f98d0ea67e886aeff5&amp;oe=606DC5C5</t>
+  </si>
+  <si>
     <t>alanschaller</t>
   </si>
   <si>
     <t>https://www.instagram.com/alan_schaller/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/69906164_536265213775960_8288307937974157312_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ErbjZ1n8wMoAX8aLsrc&amp;oh=8222ff8a026ed29da5aa9edcc4aa4e84&amp;oe=606C54BF</t>
+  </si>
+  <si>
     <t>albertdros</t>
   </si>
   <si>
     <t>https://www.instagram.com/albertdrosphotography/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/11410536_860184427361995_949312509_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Ch5H-3bNgXIAX9mZe53&amp;oh=7bb692a9c6ccbe97cf9b74f683b40627&amp;oe=606E1C8D</t>
+  </si>
+  <si>
     <t>alexandralapp_</t>
   </si>
   <si>
     <t>instagram.com/alexandralapp_/</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>karima kazan</t>
   </si>
   <si>
     <t>https://www.instagram.com/karrrrima_a/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/153180514_429831584917052_3267488697431928349_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=6B4GCsikJIoAX_dY4ce&amp;oh=7d4f572da543f43e652b73542e349a3a&amp;oe=606EDC21</t>
+  </si>
+  <si>
     <t>amivitale</t>
   </si>
   <si>
     <t>https://www.instagram.com/amivitale/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/58716096_2352894834998677_789573481887956992_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=gk7d-vHsrQ4AX-G1QbE&amp;oh=40bd4bfe119e08911d82ed974263e381&amp;oe=606C378B</t>
+  </si>
+  <si>
     <t>andy_best</t>
   </si>
   <si>
     <t>https://www.instagram.com/andy_best/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/131014084_137952398126136_2042503337531477876_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=8vEV5qrxTagAX9KQoKc&amp;oh=b215a7ecae5f3cf37c190b28987ed19e&amp;oe=606EDE2A</t>
+  </si>
+  <si>
     <t>antoninochef</t>
   </si>
   <si>
     <t>https://www.instagram.com/antoninochef/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/22221232_133906843904583_969018924911820800_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=sVgW7GfwO5IAX_ViVZG&amp;oh=fbd831c33f020a420a1264b1cf73f44b&amp;oe=606DCAFD</t>
+  </si>
+  <si>
     <t>aradhana.nayar</t>
   </si>
   <si>
     <t>https://www.instagram.com/aradhana.nayar/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/155418806_771272127148186_6302088026574022728_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=pLKc0Jm1oJcAX9l_VEW&amp;oh=4d1e56f32562799903b2b7b165b6e04b&amp;oe=606C3537</t>
+  </si>
+  <si>
     <t>aratikumarrao</t>
   </si>
   <si>
     <t>https://www.instagram.com/aratikumarrao/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/137572258_111379844210348_7853674651622650352_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=bmZRaBoX6v4AX_mvGYf&amp;oh=aee6ceeaa7138398ea3a637374282cec&amp;oe=606EF6D0</t>
+  </si>
+  <si>
     <t>armaanmalik</t>
   </si>
   <si>
     <t>https://www.instagram.com/armaanmalik/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/139498729_2828531784088697_2374861166177110171_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=cpke3H_M5IAAX9EwggT&amp;oh=8bc68019ed3577fdb5c4b2079284b7d4&amp;oe=606EF1D9</t>
+  </si>
+  <si>
     <t>babaktafreshi</t>
   </si>
   <si>
     <t>https://www.instagram.com/babaktafreshi/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/31997937_165025380860429_6169618150158499840_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=GUb-KAxkV8MAX-yG4Z-&amp;oh=3d20c6f73bb4195caeaaf677216414be&amp;oe=606C1D84</t>
+  </si>
+  <si>
     <t>rihanna</t>
   </si>
   <si>
     <t>https://www.instagram.com/badgalriri/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/11032926_1049846535031474_260957621_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=e-slKUVQUhoAX_wAuxk&amp;oh=aedae30467d48aa7e3fd28f08b5b5773&amp;oe=606C877A</t>
+  </si>
+  <si>
     <t>salmankhan</t>
   </si>
   <si>
     <t>https://www.instagram.com/beingsalmankhan/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/101646213_289018259154548_2756666252893093888_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=oGn6JWBuq80AX-cFmFt&amp;oh=09a5b6fc04678631b857306af2d5cc24&amp;oe=606C270D</t>
+  </si>
+  <si>
     <t>bipashabasu</t>
   </si>
   <si>
     <t>https://www.instagram.com/bipashabasu/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/121663613_346119273327381_3606074626939362759_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=72ZgDtivFgMAX-M_Vli&amp;oh=de2879d17f5d9d70120f2125f9408989&amp;oe=606E34F1</t>
+  </si>
+  <si>
     <t>maxHolloway</t>
   </si>
   <si>
     <t>https://www.instagram.com/blessedmma/feed/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/73324145_2768544416523361_4745100956910223360_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=n3PKQkI8Q8sAX8G56mI&amp;oh=e9b3b85a5e76f6e6f5265e7d987289dd&amp;oe=606B7B0E</t>
+  </si>
+  <si>
     <t>callumSnape</t>
   </si>
   <si>
     <t>https://www.instagram.com/calsnape/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/116081110_343379599990908_6241255732908966612_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=KLhEweghNPcAX_SDvDH&amp;oh=004ceefaa8253427e11743bf6f763de6&amp;oe=606C239A</t>
+  </si>
+  <si>
     <t>chrisburkard</t>
   </si>
   <si>
     <t>https://www.instagram.com/chrisburkard/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/117295892_160962318937169_2411277070751788770_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=_YoiNmOSR1AAX_Sct4z&amp;oh=7fdee6d15203e2f1c7014a6a62e8ffda&amp;oe=606BBCDD</t>
+  </si>
+  <si>
     <t>Rachel Maser</t>
   </si>
   <si>
     <t>https://www.instagram.com/cleanfoodcrush/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/77296404_1414139628744598_7372872105924231168_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=IZdlvIqRLKYAX__xLtv&amp;oh=6842aa6882d06aa2acc3aa3925325870&amp;oe=606B9C4C</t>
+  </si>
+  <si>
     <t>MARIAM</t>
   </si>
   <si>
     <t>https://www.instagram.com/mariam/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/73412352_706625853152576_2468878992812277760_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=5LSLqpoVKs0AX8pXH9A&amp;oh=378f6195f0f773fc989b6a8defdc111e&amp;oe=606BC8E8</t>
+  </si>
+  <si>
     <t>coryrichards</t>
   </si>
   <si>
     <t>https://www.instagram.com/coryrichards/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/147733261_451391252708895_7080770699050980579_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=rAcWj5q7WKYAX9JWR9q&amp;oh=a78a1e8dd3fd42fb77521a8ec3efea71&amp;oe=606B5A6D</t>
+  </si>
+  <si>
     <t>cubbygraham</t>
   </si>
   <si>
     <t>https://www.instagram.com/cubbygraham/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/104800892_1188798788146576_1210609351282232496_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=cUQQzOrQxQUAX-N2ZA3&amp;oh=961f118488f5164fb9823928bbb67984&amp;oe=606DBA93</t>
+  </si>
+  <si>
     <t>timLandis</t>
   </si>
   <si>
     <t>https://www.instagram.com/curious2119/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/122483342_136466091541984_5136380107509303309_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=v9eAyD0-GMkAX8DQh23&amp;oh=8bf02bd146c324c36c482c88d9bcdd7d&amp;oe=606B95E4</t>
+  </si>
+  <si>
     <t>daniel_ernst</t>
   </si>
   <si>
     <t>https://www.instagram.com/daniel_ernst/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/145889523_279724140235290_1092062609459473380_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=M2nbIDQXGucAX_6IKv2&amp;oh=68b030a63b15f8b1128a88fe64812c81&amp;oe=606DB3E2</t>
+  </si>
+  <si>
     <t>danielkordan</t>
   </si>
   <si>
     <t>https://www.instagram.com/danielkordan/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/11253763_1384789158494469_160970394_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Qkom7E3TR3IAX8E7aFL&amp;oh=09d8226255821ecbe00d600d6fbe76de&amp;oe=606CBEDE</t>
+  </si>
+  <si>
     <t>darshanraval</t>
   </si>
   <si>
@@ -208,250 +298,160 @@
     <t>https://www.instagram.com/davidchang/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/26863688_178336086272770_2970469364110721024_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=fytcgL1jsCYAX-peL4g&amp;oh=cce9479624f8677fe3e001178355eebe&amp;oe=606C1A24</t>
+  </si>
+  <si>
     <t>demilovato</t>
   </si>
   <si>
     <t>https://www.instagram.com/ddlovato/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/145964932_950921868776065_1826148623210702784_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=El38LCF8hz8AX9-7VUR&amp;oh=416df1c8937b77e013aa79879ec2f96a&amp;oe=606E0571</t>
+  </si>
+  <si>
     <t>deepikapadukone</t>
   </si>
   <si>
     <t>https://www.instagram.com/deepikapadukone/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/135010788_230505631936913_8861106971163532314_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=fsRLghO4sloAX-Sw7rn&amp;oh=1890a44958d6e4a347c31f52972101aa&amp;oe=606E07D1</t>
+  </si>
+  <si>
     <t>Ella Mills</t>
   </si>
   <si>
     <t>https://www.instagram.com/deliciouslyella/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/140618278_736728423904427_2726461411838068584_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=MEgw87alW8oAX_1gwuE&amp;oh=1fad330536645ab6a090971641a1931c&amp;oe=606DD52A</t>
+  </si>
+  <si>
     <t>David Guttenfelder</t>
   </si>
   <si>
     <t>https://www.instagram.com/dguttenfelder/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/135027486_241274344035905_7313935296838900571_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Ykbn24eackEAX-R3doy&amp;oh=7673b33386e62b8051b94f0861be8e8b&amp;oe=606D1D69</t>
+  </si>
+  <si>
     <t>dimaovtcharov</t>
   </si>
   <si>
     <t>https://www.instagram.com/dimaovtcharov/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/116335895_580708939262666_5210990617919088734_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ntTDonn2OOYAX_4uv31&amp;oh=beeebc986c8a50a970e4f81a4fb9500d&amp;oe=606D2AD8</t>
+  </si>
+  <si>
     <t>dotzsoh</t>
   </si>
   <si>
     <t>https://www.instagram.com/dotzsoh/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/57056285_341960396673507_5874560292129603584_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=kxmAtbkAcoQAX8zMzbc&amp;oh=11b9522c9c838622fbd8d592d1b229b7&amp;oe=606E9607</t>
+  </si>
+  <si>
     <t>dylan furst</t>
   </si>
   <si>
     <t>https://www.instagram.com/fursty/feed/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/12139819_892747864105870_642152726_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=zZvABiPgNvwAX_QhL7e&amp;oh=bbbb5eb91f3b3f397b5c7e54596c8434&amp;oe=606CE1B1</t>
+  </si>
+  <si>
     <t>Michaela Vais</t>
   </si>
   <si>
     <t>https://www.instagram.com/elavegan/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/21227792_1316229625171675_2262321787775746048_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=o_ZZYqJG04QAX9H3Adj&amp;oh=e09126a86636408284858cfe46c99d75&amp;oe=606C3CDD</t>
+  </si>
+  <si>
     <t>emmett_sparling</t>
   </si>
   <si>
     <t>https://www.instagram.com/emmett_sparling/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/136834190_149651426928400_5540861194396446085_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=-iW-GkW61eIAX9IElmy&amp;oh=f6728b0272a8d5a4680ddaf6682c5ff9&amp;oe=606DAEAF</t>
+  </si>
+  <si>
     <t>Yumna</t>
   </si>
   <si>
     <t>https://www.instagram.com/yumnazaidiofficial/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/156461203_252919349705784_7942101028728505089_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=DXRSmqVxjlYAX8uq5cT&amp;oh=b56622e8fb594c9467fd74b62f0013b0&amp;oe=606E42D9</t>
+  </si>
+  <si>
     <t>gordongramsay</t>
   </si>
   <si>
     <t>https://www.instagram.com/gordongram/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/139522470_764561291084833_4838491222735957661_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=eBV_RA-pWhcAX-xQ8nV&amp;oh=647bda3a4465aef0b9683b575512d228&amp;oe=606BDDD9</t>
+  </si>
+  <si>
     <t>gururandhawa</t>
   </si>
   <si>
     <t>https://www.instagram.com/gururandhawa/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/133717397_148270100204402_6011617260580695193_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=8L8gtMB7dp4AX92VVsV&amp;oh=9c311b202dd03497ae5f0d457c460eb4&amp;oe=606C3DC7</t>
+  </si>
+  <si>
     <t>Tieghan Gerard</t>
   </si>
   <si>
     <t>https://www.instagram.com/halfbakedharvest/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120199195_929784357510261_5100935598117396997_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=YrokrMGn4dYAX_A1sUc&amp;oh=3f7506f83946f51ed95f08e15bac1753&amp;oe=606E9A2E</t>
+  </si>
+  <si>
     <t>hashimbadani</t>
   </si>
   <si>
     <t>https://www.instagram.com/hashimbadani/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120737942_186304913006257_348065979354800215_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=XKhpxTPGpKIAX9H7ZbQ&amp;oh=5c60be9e64a6e92f557e433f09e79296&amp;oe=606C7200</t>
+  </si>
+  <si>
     <t>Rena</t>
   </si>
   <si>
     <t>https://www.instagram.com/renaessarap/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/15034960_968684323237049_5360004432471785472_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=P85YAfxZKo0AX8Ys8D_&amp;oh=5c57dd030b84196faf77202a13767f51&amp;oe=606BBBB0</t>
+  </si>
+  <si>
     <t>cardib</t>
   </si>
   <si>
     <t>https://www.instagram.com/iamcardib/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/151330788_2875558375990777_876347079382687146_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=w_5EPsUVjOMAX9hm-TW&amp;oh=13697e4966bdda9b43a746489ee81324&amp;oe=606C7767</t>
+  </si>
+  <si>
     <t>indiapictures</t>
   </si>
   <si>
     <t>https://www.instagram.com/indiapictures/?hl=en</t>
   </si>
   <si>
-    <t>jamieoliver</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jamieoliver/?hl=en</t>
-  </si>
-  <si>
-    <t>jasoncharleshill</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jasoncharleshill/?hl=en</t>
-  </si>
-  <si>
-    <t>jbalvin</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jbalvin/</t>
-  </si>
-  <si>
-    <t>jimmychin</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jimmychin/?hl=en</t>
-  </si>
-  <si>
-    <t>jn</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jn/?hl=en</t>
-  </si>
-  <si>
-    <t>johnstanmeyer</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/johnstanmeyer/?hl=en</t>
-  </si>
-  <si>
-    <t>jordi.koalitic</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jordi.koalitic/?hl=en</t>
-  </si>
-  <si>
-    <t>juju</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jujuvierundvierzig/?hl=en</t>
-  </si>
-  <si>
-    <t>karimbenzema</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/karimbenzema/</t>
-  </si>
-  <si>
-    <t>Kevinruss</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kevinruss/?hl=en</t>
-  </si>
-  <si>
-    <t>khloekardashian</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/khloekardashian/?hl=en</t>
-  </si>
-  <si>
-    <t>kimkardashian</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kimkardashian/?hl=en</t>
-  </si>
-  <si>
-    <t>kohki</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kohki/?hl=en</t>
-  </si>
-  <si>
-    <t>kyle_lowry</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kyle_lowry7/?hl=en</t>
-  </si>
-  <si>
-    <t>ladzinski</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ladzinski/?hl=en</t>
-  </si>
-  <si>
-    <t>liampayne</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/liampayne/</t>
-  </si>
-  <si>
-    <t>manfredbaumann</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/manfredbaumann/?hl=ms</t>
-  </si>
-  <si>
-    <t>marianodivaio</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/marianodivaio/</t>
-  </si>
-  <si>
-    <t>mariasharapova</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mariasharapova/</t>
-  </si>
-  <si>
-    <t>markmcmorris</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/markmcmorris/</t>
-  </si>
-  <si>
-    <t>marthastewart</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/marthastewart/</t>
-  </si>
-  <si>
-    <t>meowmeix</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/meowmeix/</t>
-  </si>
-  <si>
-    <t>mileycyrus</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mileycyrus/</t>
-  </si>
-  <si>
-    <t>minimalistbaker</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/minimalistbaker/</t>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/26068240_141339306520104_6391256389825593344_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=9CMv78Btzy0AX_oTwbd&amp;oh=ff71b4a337cef93e1b90312e1332c7d3&amp;oe=606E2DDF</t>
   </si>
   <si>
     <t>mirzasania</t>
@@ -460,623 +460,932 @@
     <t>https://www.instagram.com/mirzasaniar/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/59493501_843746825984170_6480034355971358720_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=LoN3WIUpFAwAX8ZMthp&amp;oh=af931d11161370b731bdd4efccb90454&amp;oe=606CD4E5</t>
+  </si>
+  <si>
     <t>Cristina Mittermeier</t>
   </si>
   <si>
     <t>https://www.instagram.com/mitty/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/101856595_611714793029800_3176995473584029696_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=OekpkRm7D7YAX_Dc-Rf&amp;oh=bf3c31c895d0c03ee0cdbb87dacedd5f&amp;oe=606E7812</t>
+  </si>
+  <si>
     <t>mohammed muheisen</t>
   </si>
   <si>
     <t>https://www.instagram.com/mmuheisen/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/10449146_515989958503105_1538004834_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=NTWcKM6Y7G4AX-LUQ5G&amp;oh=dd4fd08816c65eaae600df2e789417a4&amp;oe=606EF8FE</t>
+  </si>
+  <si>
     <t>nehakakkar</t>
   </si>
   <si>
     <t>https://www.instagram.com/nehakakkar</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/122758637_3453945041359162_7506840878477142321_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ZBmQmVmEVZwAX_KyAuU&amp;oh=4993081dcbca2c36587baf46e5c99670&amp;oe=606FE6F0</t>
+  </si>
+  <si>
     <t>niallhoran</t>
   </si>
   <si>
     <t>https://www.instagram.com/niallhoran/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/124502326_366112784814205_7598380879420596205_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=3HqzjEyYN1gAX9D4rTL&amp;oh=6b26cb6232ab174fc39fb474c18f1643&amp;oe=606EF533</t>
+  </si>
+  <si>
     <t>nickiminaj</t>
   </si>
   <si>
     <t>https://www.instagram.com/nickiminaj/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/72556579_571769680249541_6530533537760673792_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=cqS59wLtDZ8AX9x98sD&amp;oh=a5e74f6e3da98f528bbd854602265e6e&amp;oe=606F7B63</t>
+  </si>
+  <si>
     <t>nigellalawson</t>
   </si>
   <si>
     <t>https://www.instagram.com/nigellalawson/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/12345784_527375694129962_798038190_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=seIt-lQ4BKAAX_VjRQP&amp;oh=3a0c03f1b87a1b269371e1d288dc9089&amp;oe=606F2EC4</t>
+  </si>
+  <si>
     <t>odembele</t>
   </si>
   <si>
     <t>https://www.instagram.com/o.dembele7/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/139618807_3691000060959985_1728560291832119286_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=svGgJEP9FsQAX_Aa5Sr&amp;oh=bb85e8d06ad15cb10e7d954dad04b09f&amp;oe=606FEC08</t>
+  </si>
+  <si>
     <t>obafemi</t>
   </si>
   <si>
     <t>https://www.instagram.com/obafemi_36/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/60368735_2780378055324050_3204932569397198848_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=kgpAUvvaqI0AX_qnMJh&amp;oh=49ae2444d603e98c64c2844ea9fb814b&amp;oe=606D149A</t>
+  </si>
+  <si>
     <t>ottolenghi</t>
   </si>
   <si>
     <t>https://www.instagram.com/ottolenghi/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/85105748_568213403783439_8287295365074386944_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=7A8wzwjT_4oAX9gMMDQ&amp;oh=8968703748f03ba5675e99592eba56c8&amp;oe=606C7D44</t>
+  </si>
+  <si>
     <t>paulnicklen</t>
   </si>
   <si>
     <t>https://www.instagram.com/paulnicklen/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/93756524_253798018988532_1669202571023089664_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=8PA5Kxt2LcgAX9IpZfX&amp;oh=7e99591ca01890e5b8891c8b1e740a8e&amp;oe=606FF389</t>
+  </si>
+  <si>
     <t>pchan31</t>
   </si>
   <si>
     <t>https://www.instagram.com/pchan31/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/20582728_1941220389451045_8906850693944442880_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Fn2bAP31WTEAX-65tCV&amp;oh=99c3c2df11ae7c9187c2fbf4ee91c808&amp;oe=606E08AA</t>
+  </si>
+  <si>
     <t>pinchofyum</t>
   </si>
   <si>
     <t>https://www.instagram.com/pinchofyum/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/30084951_187537128712333_1589755868004483072_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Vk2FCoIN0s4AX_Bt9JU&amp;oh=f0ea3939e98af30bdccc095f7b9166d3&amp;oe=606FB6C2</t>
+  </si>
+  <si>
     <t>pketron</t>
   </si>
   <si>
     <t>https://www.instagram.com/pketron/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/114586856_702306027216762_3821525710039315916_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ZNmt_mIfHSoAX9d7n8j&amp;oh=805b62d8fb4a08de9e0d5681b5072935&amp;oe=606E2966</t>
+  </si>
+  <si>
     <t>pvsindhu1</t>
   </si>
   <si>
     <t>https://www.instagram.com/pvsindhu1/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/69661902_2483077728443793_4548131708016263168_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=TLRn928hcOoAX9ZXQYB&amp;oh=633c34230d41c6a58023ba53a7a7fcf0&amp;oe=60704215</t>
+  </si>
+  <si>
     <t>rachstewartnz</t>
   </si>
   <si>
     <t>https://www.instagram.com/rachstewartnz/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/125067246_2428692187427235_8397353810581905857_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=WDhn4koaP94AX_R1sTX&amp;oh=b3bc4e5cc406808426de5f884ea333e4&amp;oe=606FC09C</t>
+  </si>
+  <si>
     <t>ranjanagodara09</t>
   </si>
   <si>
     <t>https://www.instagram.com/ranjanagodara09/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/124463540_164914032005105_5012549257132145377_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=D5pVXAA0F9MAX9IGVBQ&amp;oh=daa80447b8fa6ed6f91a4794f6bd06a1&amp;oe=60702B92</t>
+  </si>
+  <si>
     <t>shoaibmalik</t>
   </si>
   <si>
     <t>https://www.instagram.com/realshoaibmalik/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/89941865_654112491990207_3085263626500571136_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=jRuaUyCI3iYAX8y6x8b&amp;oh=a9b438af1ef111cdb1d41786ff0e9e7a&amp;oe=606D818D</t>
+  </si>
+  <si>
     <t>richi.shah</t>
   </si>
   <si>
     <t>https://www.instagram.com/richi.shah/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/153545367_707281973285254_7614818706731284746_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=KAv-qTGS4vEAX8MgLuI&amp;oh=a1f26900201a48a802610cbd0a835fe0&amp;oe=606D3203</t>
+  </si>
+  <si>
     <t>sakshimalikk</t>
   </si>
   <si>
     <t>https://www.instagram.com/sakshimalikk/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/131210636_425570425521683_8595108226101473769_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=o6qJSsX5IhQAX-xMmSo&amp;oh=333f4505aa19897deee39d429392d24f&amp;oe=606E15AE</t>
+  </si>
+  <si>
     <t>serenawilliams</t>
   </si>
   <si>
     <t>https://www.instagram.com/serenawilliams/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/18095991_1825016891157748_4005741561177440256_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=q9G5Bho6C3AAX8-Bd7F&amp;oh=5fc20d9ddef519bbc6c810affe64edc7&amp;oe=606ECF50</t>
+  </si>
+  <si>
     <t>shakira</t>
   </si>
   <si>
     <t>https://www.instagram.com/shakira/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/130329012_371265734171137_5498687193914542012_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ruWiEG56HUgAX-xZe8k&amp;oh=3630bdab93a7747e8f838ddfdca6e81a&amp;oe=606ED9CD</t>
+  </si>
+  <si>
     <t>shivani.singhh</t>
   </si>
   <si>
     <t>https://www.instagram.com/shivani.singhh/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/151411478_859418351577213_6553958447426936134_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Pu9Wuzi0KZcAX9pp560&amp;oh=d6fd69597df4d28eb6bea1126eea1dbf&amp;oe=606E57A2</t>
+  </si>
+  <si>
     <t>SHONDA</t>
   </si>
   <si>
     <t>https://www.instagram.com/shonda1020/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/46991028_2267229126892822_8517440551975387136_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ezc2KznSTcsAX90kyx2&amp;oh=f102b2e015bb774e1b8639af13b2372a&amp;oe=606DDAF7</t>
+  </si>
+  <si>
     <t>siddharthajoshi</t>
   </si>
   <si>
     <t>https://www.instagram.com/siddharthajoshi/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/74666975_1206495346405833_2003365960253177856_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=iFFPaKbpZXcAX9bGxUk&amp;oh=68196a1ab1078f2cbf28d55616c70161&amp;oe=606C93C0</t>
+  </si>
+  <si>
     <t>srikanth_kidambi</t>
   </si>
   <si>
     <t>https://www.instagram.com/srikanth_kidambi/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/47584274_328463048007441_3557974096534831104_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Ug23DB333AcAX_-goNd&amp;oh=d4b6822dbe717547a19fb2fa60bc5dd6&amp;oe=606F7A8F</t>
+  </si>
+  <si>
     <t>stevemccurry</t>
   </si>
   <si>
     <t>https://www.instagram.com/stevemccurryofficial/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/113663560_1489116587927209_5227799690614028612_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=VC1_GKNJDFIAX8KXREQ&amp;oh=6f97d805db5fb7b3b7c22b959be1f3f3&amp;oe=606CBD23</t>
+  </si>
+  <si>
     <t>stianmklo</t>
   </si>
   <si>
     <t>https://www.instagram.com/stianmklo/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/12531122_194356950919711_575459244_a.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=d3fUgkl3iJ4AX-G7iGg&amp;oh=0f9a5850846e8e2fd6019ec8967928d4&amp;oe=606E4459</t>
+  </si>
+  <si>
     <t>testkitchen</t>
   </si>
   <si>
     <t>https://www.instagram.com/testkitchen/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/11353437_368369173359541_1229518266_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=O57eT9LrC2gAX_Jx8L6&amp;oh=2aab74e13c16dfa6efe5187e539c7b4e&amp;oe=606D9ABB</t>
+  </si>
+  <si>
     <t>Sam Schnur</t>
   </si>
   <si>
     <t>https://www.instagram.com/thenaughtyfork/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/152013411_793442671525473_443682300263809306_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=KEyomQqGpfAAX9yR-iX&amp;oh=0edd1ade76de2c68a6d13353d3786908&amp;oe=606D3C38</t>
+  </si>
+  <si>
     <t>Ree Drummond</t>
   </si>
   <si>
     <t>https://www.instagram.com/thepioneerwoman/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/31076346_171899630121516_2739800461782548480_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=-yIhunXsVqkAX-oZbkp&amp;oh=308c095f1233f54f35d05c1477fbc716&amp;oe=606CD574</t>
+  </si>
+  <si>
     <t>thomasroehler</t>
   </si>
   <si>
     <t>https://www.instagram.com/thomasroehler/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/106134332_308433610197230_2721173301692768137_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=yXflnPPqCDMAX9VN1Yf&amp;oh=c5cf192e2b51e4240f8a3745bdae36e6&amp;oe=606D3FC1</t>
+  </si>
+  <si>
     <t>traveller.chris</t>
   </si>
   <si>
     <t>https://www.instagram.com/traveller.chris/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/129769313_998107887338089_2683846974493774019_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=9DeMY6hm44AAX8S97Sh&amp;oh=2fd44880eebd3461d2edbdfb70adf148&amp;oe=606CEE16</t>
+  </si>
+  <si>
     <t>virat.kohli</t>
   </si>
   <si>
     <t>https://www.instagram.com/virat.kohli/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120097897_172397281086637_5031602793879746188_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=tnWJm1I6vXQAX9mJs9L&amp;oh=f7a5c2d2d58366e3035d21fa2dbf2c68&amp;oe=60703C4E</t>
+  </si>
+  <si>
     <t>vutheara</t>
   </si>
   <si>
     <t>https://www.instagram.com/vutheara/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/156282975_341666683835275_3996634429935382708_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=52U3k6kHIpcAX_V3XZV&amp;oh=c8c82e94253096c6e0949d324385201e&amp;oe=606F5B66</t>
+  </si>
+  <si>
     <t>yamashitaphoto</t>
   </si>
   <si>
     <t>https://www.instagram.com/yamashitaphoto/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/11887051_488010578022583_1999640198_a.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=FNW0oHFpazAAX-q_suM&amp;oh=93126064e3c9fcf6605dc515533bdd14&amp;oe=606C9831</t>
+  </si>
+  <si>
     <t>yovana</t>
   </si>
   <si>
     <t>https://www.instagram.com/yovana/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/151799444_245309180414170_5049242655737993790_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=yhsCF9u_qVoAX84Bz6N&amp;oh=b728253328f15fc13d41e2d849e8e51f&amp;oe=606DBC8E</t>
+  </si>
+  <si>
     <t>aditi_budhathoki</t>
   </si>
   <si>
     <t>https://www.instagram.com/aditi_budhathoki/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/152789545_275240354018276_5950260830094115304_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=on-8ZMk5GRUAX-CMxiL&amp;oh=2dd9f36222b0c929e22bb6181e97bf55&amp;oe=606F9208</t>
+  </si>
+  <si>
     <t>aashnashroff</t>
   </si>
   <si>
     <t>https://www.instagram.com/aashnashroff/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/136377057_428908141882682_3218859113981650826_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=3xug5YDdSd8AX-mdEf9&amp;oh=776039617a45e7015454f53ac3e40b37&amp;oe=606DDC6B</t>
+  </si>
+  <si>
     <t>aditiraohydari</t>
   </si>
   <si>
     <t>https://www.instagram.com/aditiraohydari/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/100994750_309666866696506_341396135631388672_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=IRm0R1LyERQAX8AMhNE&amp;oh=d1d1c518c4a0f6b662280a171ae75be2&amp;oe=606DE2F9</t>
+  </si>
+  <si>
     <t>agnijitabanerjee</t>
   </si>
   <si>
     <t>https://www.instagram.com/agnijitabanerjee/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/158205008_140600511281700_114806837116919857_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=JPRsD2GFp0kAX9WF4B6&amp;oh=4de51e070d090b32b051d4bb2d715fb5&amp;oe=606DAA29</t>
+  </si>
+  <si>
     <t>aliaabhatt</t>
   </si>
   <si>
     <t>https://www.instagram.com/aliaabhatt/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/157909782_941144500032065_3292868256179757031_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Oa0rJwXoiZoAX-6o6SJ&amp;oh=f7dfc61210625c6c83b97523f18e540c&amp;oe=606E8220</t>
+  </si>
+  <si>
     <t>ariadibari</t>
   </si>
   <si>
     <t>https://www.instagram.com/ariadibari/?hl=en</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/156746317_154420609858624_3309955441737239912_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=IcgKGGBJ_MsAX9ZCtx8&amp;oh=ec53f9f980469a9e62033d06b757294d&amp;oe=6070548F</t>
+  </si>
+  <si>
     <t>arianagrande</t>
   </si>
   <si>
     <t>https://www.instagram.com/arianagrande/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/150144196_413684549725454_5780707478232687550_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Pa_lLF1bqYYAX_5vjNy&amp;oh=df5f24dd4302df501b9b6f5503eef3c6&amp;oe=606D6848</t>
+  </si>
+  <si>
     <t>sonakshiSinha</t>
   </si>
   <si>
     <t>https://www.instagram.com/aslisona/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/81796373_474740939868260_8344800248408834048_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=_037hco0cmsAX-r4leL&amp;oh=eac3877f170b7e3c89feee13ea1ed1d3&amp;oe=606EBC2E</t>
+  </si>
+  <si>
     <t>billieeilish</t>
   </si>
   <si>
     <t>https://www.instagram.com/billieeilish/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/145186332_1767482503432469_6223024162418762542_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=-c1oZSJ25xEAX8B7ftR&amp;oh=8ba8ca668fa11cd6d4cf66ea040ffcf7&amp;oe=606F4952</t>
+  </si>
+  <si>
     <t>camila_cabello</t>
   </si>
   <si>
     <t>https://www.instagram.com/camila_cabello/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/155026379_710094613005620_179392329008316518_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=5V-IYOD8LssAX-ppYCi&amp;oh=838a2815b2d2e6cbbb580edbb8a556ba&amp;oe=6070162B</t>
+  </si>
+  <si>
     <t>charliechauhan</t>
   </si>
   <si>
     <t>https://www.instagram.com/charliechauhan/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/158053179_718497272159513_1236937877346568879_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=oSWC8P4Y25cAX_u48m8&amp;oh=32b58dfbcd9c785b36cf506acbbfb57e&amp;oe=606D4A75</t>
+  </si>
+  <si>
     <t>chrisevans</t>
   </si>
   <si>
     <t>https://www.instagram.com/chrisevans/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/121358196_392309171786543_7913924227993671240_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=LKKQgPVnDVMAX8dFfTf&amp;oh=918592c54a9a0f0945f3272b3d1f77e3&amp;oe=606DB900</t>
+  </si>
+  <si>
     <t>chrissyteigen</t>
   </si>
   <si>
     <t>https://www.instagram.com/chrissyteigen/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/76863347_2366646690267727_7106997975146037248_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Fuej85KDg3IAX9Kp3Zm&amp;oh=44a297e99c415d0fdf8f1309f3a0c863&amp;oe=606E3AB2</t>
+  </si>
+  <si>
     <t>davidbeckham</t>
   </si>
   <si>
     <t>https://www.instagram.com/davidbeckham/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/72370593_2494782373951274_5884765838799536128_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=K_40fdhi7nQAX83IXXG&amp;oh=680587669a7fe604d45ef562146be3fb&amp;oe=606D27B7</t>
+  </si>
+  <si>
     <t>diipakhosla</t>
   </si>
   <si>
     <t>https://www.instagram.com/diipakhosla/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/132684168_2741841719462539_1261273124154597684_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=gIxPB_kGaqMAX-59-Z5&amp;oh=e8ec9be290de545a495d8ce79f6ddb2e&amp;oe=60701F96</t>
+  </si>
+  <si>
     <t>dishapatani</t>
   </si>
   <si>
     <t>https://www.instagram.com/dishapatani/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/134761953_1281763468861368_6875621558763825539_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=mEj1ZfxKEMEAX-LIqHm&amp;oh=377baff5b8a4db51c999194f5334a29d&amp;oe=606E724F</t>
+  </si>
+  <si>
     <t>ektajaggi</t>
   </si>
   <si>
     <t>https://www.instagram.com/ektaj222/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/104182353_307839996909082_2125600728740027200_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=i5XaXIvj8UoAX_ZndoK&amp;oh=06be46f1655971a8ce5160a8b850281b&amp;oe=606F9893</t>
+  </si>
+  <si>
     <t>emmawatson</t>
   </si>
   <si>
     <t>https://www.instagram.com/emmawatson/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/101812524_2677385709253237_3729433563267858432_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=LJHZ5Bb7OZkAX9h8dZL&amp;oh=c2f875aa3f120ab751c2ecf65702f4ea&amp;oe=606F3B0D</t>
+  </si>
+  <si>
     <t>gaurimehtaa</t>
   </si>
   <si>
     <t>https://www.instagram.com/gaurimehtaa/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/155247993_2838649096391106_6121044730017564434_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=0w1hE8b8McsAX9VckA2&amp;oh=3eb51e748dba4e398410f95bc51689a2&amp;oe=606F6B9C</t>
+  </si>
+  <si>
     <t>gemmatalbot</t>
   </si>
   <si>
     <t>https://www.instagram.com/gemmatalbot/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/154300991_476936693315770_8269515030593180707_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=h2jh7wQLJBUAX8HYZtF&amp;oh=a4a62b95151a4516d97436930b25f552&amp;oe=606E37BC</t>
+  </si>
+  <si>
     <t>gigihadid</t>
   </si>
   <si>
     <t>https://www.instagram.com/gigihadid/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/75403220_2814819812077842_1639157011339804672_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=hgOW51kxGOkAX9IDixU&amp;oh=7430324899c3e6444e876f5c021878dd&amp;oe=606CADA4</t>
+  </si>
+  <si>
     <t>hardikpandya</t>
   </si>
   <si>
     <t>https://www.instagram.com/hardikpandya93/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/146566333_142121854409503_3652122930196997250_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Rn47zPW8LDUAX_B2H1d&amp;oh=b7f463fb403b7dd8e2fcefaa2f12815b&amp;oe=606EA3DF</t>
+  </si>
+  <si>
     <t>ileanaDcruz</t>
   </si>
   <si>
     <t>https://www.instagram.com/ileana_official/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/151236885_301952464593761_4692503283270643698_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=G5Kt8ViAlu0AX8EqhWn&amp;oh=038682581bfbf3efb356e06f0b6f7fcd&amp;oe=606CFB1E</t>
+  </si>
+  <si>
     <t>jenn im</t>
   </si>
   <si>
     <t>https://www.instagram.com/imjennim/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/52840555_1918106758318832_360224314479345664_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=sjGbat68TcoAX-_6qzY&amp;oh=c1f11cc1f35b66e15e473cabc11f5055&amp;oe=606F0DD9</t>
+  </si>
+  <si>
     <t>jennifer lopez</t>
   </si>
   <si>
     <t>https://www.instagram.com/jlo/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/157353490_4245704695460924_4529824144231733588_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=7k2scpjMGQcAX8PTtDj&amp;oh=08da6c84160186ec759efaee9ed2cb79&amp;oe=606D081B</t>
+  </si>
+  <si>
     <t>juhigodambe</t>
   </si>
   <si>
     <t>https://www.instagram.com/juhigodambe/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/53435585_866044243787481_4425836521467150336_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=tNxHgy2NYVsAX9jRBCf&amp;oh=d1eb506cc986ed162cbcbda363e29f12&amp;oe=606F64A1</t>
+  </si>
+  <si>
     <t>justinbieber</t>
   </si>
   <si>
     <t>https://www.instagram.com/justinbieber/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/154063225_187219123181095_3288950166668097305_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=EFiyeDuEMYwAX9yM-vc&amp;oh=94cecad1ddd5480ab184ad509de3a4a1&amp;oe=606DE492</t>
+  </si>
+  <si>
     <t>kirandeep kaur</t>
   </si>
   <si>
     <t>https://www.instagram.com/kanika868/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/145024103_1764594267037417_7611478380618577262_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=7s6Mn_lReqcAX8qnzxX&amp;oh=0623ffbf68a5fe0759289aaea1ef8417&amp;oe=606FB103</t>
+  </si>
+  <si>
     <t>katrinakaif</t>
   </si>
   <si>
     <t>https://www.instagram.com/katrinakaif/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/96254183_242611860415611_4007696333937836032_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=-YTGDwB8a9cAX_H6HV7&amp;oh=5bb3ad714a9fc522d75fbc8ae92a0b12&amp;oe=606E1ECA</t>
+  </si>
+  <si>
     <t>katyperry</t>
   </si>
   <si>
     <t>https://www.instagram.com/katyperry/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/118550039_182034303327791_6144105614706839563_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=11enZXb5YC0AX_uJkRK&amp;oh=fa85862abb8d7ed9644eded7b0cab13f&amp;oe=606E468C</t>
+  </si>
+  <si>
     <t>kendalljenner</t>
   </si>
   <si>
     <t>https://www.instagram.com/kendalljenner/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/135811429_139036817943437_5718038198453340319_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=9l1RQQ8ez9YAX_Fw39S&amp;oh=24127ecb1217bdfe7e07dab2d321b30c&amp;oe=606DE685</t>
+  </si>
+  <si>
     <t>ketikasharma</t>
   </si>
   <si>
     <t>https://www.instagram.com/ketikasharma/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/65304250_2539892636043382_7769443027822575616_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=NLZZ7il_CtIAX-OXHcA&amp;oh=14158ad4d62262eebd2f751f2f9a8f2e&amp;oe=606FABC7</t>
+  </si>
+  <si>
     <t>komalpandey</t>
   </si>
   <si>
     <t>https://www.instagram.com/komalpandeyofficial/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/156974068_277265720480804_3666774980026835916_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=SibU9xtOZMgAX-2g7kT&amp;oh=91d0ad272d31a13ab0d4a73f21f0a16a&amp;oe=606D2E7F</t>
+  </si>
+  <si>
     <t>kyliejenner</t>
   </si>
   <si>
     <t>https://www.instagram.com/kyliejenner/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/123885563_855075811697113_8647373123046258603_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=DxJXf521ui0AX_yUiBr&amp;oh=b4ee375cb2b769bddbe235a893859c62&amp;oe=606DA9AA</t>
+  </si>
+  <si>
     <t>kyliejshot</t>
   </si>
   <si>
     <t>https://www.instagram.com/kyliejshot/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/136359553_240601704132930_2481607208787894625_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=kENIG1Y4Ww0AX9kX6u7&amp;oh=86cca38c54fb52354a606535905a76dc&amp;oe=606CF213</t>
+  </si>
+  <si>
     <t>malvikasharma</t>
   </si>
   <si>
     <t>https://www.instagram.com/malvikasharmaofficial/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/126960967_400655944631834_8126894416807918558_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=4bXvMQvaM4sAX9dO-Aa&amp;oh=cf1291a30d0fa9e4c6cabf9e1aa81615&amp;oe=60704F23</t>
+  </si>
+  <si>
     <t>malvikasitlani</t>
   </si>
   <si>
     <t>https://www.instagram.com/malvikasitlaniofficial/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/146089108_460605648409259_4693569642023461345_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=NXPbser7XhgAX_CEhy7&amp;oh=ff25a6e720efe910ea230d628e9c61b1&amp;oe=606EC3AC</t>
+  </si>
+  <si>
     <t>milliebobbybrown</t>
   </si>
   <si>
     <t>https://www.instagram.com/milliebobbybrown/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/139565199_157645956128808_854912019417897640_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=CrUbRI5SC6UAX8K0hqb&amp;oh=dfcd442d10a491a7db5d7a6d0f1d2261&amp;oe=606CC710</t>
+  </si>
+  <si>
     <t>newdarlings</t>
   </si>
   <si>
     <t>https://www.instagram.com/newdarlings/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/88254670_2586450608278006_1117678257106321408_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=PkPl4Zao93kAX8CY6KQ&amp;oh=b7ad0338a0382837979110d3a2ae4105&amp;oe=606E7762</t>
+  </si>
+  <si>
     <t>neymarjr</t>
   </si>
   <si>
     <t>https://www.instagram.com/neymarjr/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/121702818_352810452603593_4702905526057730120_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=z_OywG6flkgAX8ogq3f&amp;oh=d123f66d57aa7264448b44579f802ec7&amp;oe=606FA7DA</t>
+  </si>
+  <si>
     <t>paulodybala</t>
   </si>
   <si>
     <t>https://www.instagram.com/paulodybala/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/103051181_564673050901478_1658295574589341696_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=VFqC9H5i6roAX-IEKBQ&amp;oh=062196e9632e8c754ca164619e4cac6a&amp;oe=606EF4AB</t>
+  </si>
+  <si>
     <t>pavii_padukone</t>
   </si>
   <si>
     <t>https://www.instagram.com/pavii_padukone/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/132266349_2492262777746056_3485200645247322345_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=_IO_jondCd0AX-ozwko&amp;oh=371e33c5cc13f030bf71b6ffbf90aeee&amp;oe=606DCDC7</t>
+  </si>
+  <si>
     <t>prajakta dusane</t>
   </si>
   <si>
     <t>https://www.instagram.com/praju_starlet/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/119551207_626126777976550_2767478514095903129_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=PgVNbpVkNtMAX_XVzm3&amp;oh=0d7dd1037513b9bd3196d593e458faa4&amp;oe=606F1915</t>
+  </si>
+  <si>
     <t>priyankachopra</t>
   </si>
   <si>
     <t>https://www.instagram.com/priyankachopra/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/146289483_137956581488902_6222385250549417426_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ToCxQXi6RFMAX_lB_rU&amp;oh=5e0f884671e0e9b7ce338d4356060389&amp;oe=606EE0F0</t>
+  </si>
+  <si>
     <t>priyankatyagi</t>
   </si>
   <si>
     <t>https://www.instagram.com/priyankatyagi03/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/139435133_422749425717630_8946343457286439221_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=bQP3VUmCq4oAX9HouZf&amp;oh=05b62d449bc1e4d59b7f3204524a4d93&amp;oe=60703B1D</t>
+  </si>
+  <si>
     <t>purbaasha Das</t>
   </si>
   <si>
     <t>https://www.instagram.com/purbaasha/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/122179125_662545757792537_8445607369305499998_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=sxLelWE3lwUAX_J08KR&amp;oh=7fb9dc273f2609470425d2c789d0dab0&amp;oe=606DBB99</t>
+  </si>
+  <si>
     <t>payal rajput</t>
   </si>
   <si>
     <t>https://www.instagram.com/rajputpaayal/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/156017494_1129840904132791_3197754787968100617_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=zU7GLBzNUvcAX9csatf&amp;oh=4f613c3ded6cf95d22becdf9103a1b51&amp;oe=606D8980</t>
+  </si>
+  <si>
     <t>ranveersingh</t>
   </si>
   <si>
     <t>https://www.instagram.com/ranveersingh/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/130458947_294987781924791_4333962463587977142_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=LOm06JsXW5MAX8nKVrU&amp;oh=103e0625ad454d80d20d0da32b7146a0&amp;oe=606FC210</t>
+  </si>
+  <si>
     <t>Rii</t>
   </si>
   <si>
     <t>https://www.instagram.com/riimusicofficial/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/143976634_3804839239555986_2934622154049639433_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=XnREqU5X_8MAX-mq-78&amp;oh=91e2c9f6d4a65cce0a501514c1d79226&amp;oe=606D73E6</t>
+  </si>
+  <si>
     <t>robertdowneyjr</t>
   </si>
   <si>
     <t>https://www.instagram.com/robertdowneyjr/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/143237481_227994098925572_6634984787450078090_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=gM28SPeOvCQAX-OKSgQ&amp;oh=47030911cb106ee7421640aae88e5273&amp;oe=606D4E81</t>
+  </si>
+  <si>
     <t>rohitsharma</t>
   </si>
   <si>
     <t>https://www.instagram.com/rohitsharma45/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/64223843_258348321705335_8271478873128960000_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=AJPxarXCv88AX-XVsqz&amp;oh=bd78ff48b35cb85a6ae6fa6c61830135&amp;oe=606D10DF</t>
+  </si>
+  <si>
     <t>ruma_sharmaa</t>
   </si>
   <si>
     <t>https://www.instagram.com/ruma_sharmaa/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/137564469_772761989993835_248961600741368540_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=hIW4LfTp70gAX_SpbwN&amp;oh=074e18b3213da31c17e5c02f2ea78d4a&amp;oe=606E1C07</t>
+  </si>
+  <si>
     <t>saanvidhiman</t>
   </si>
   <si>
     <t>https://www.instagram.com/saanvidhiman/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120535467_1329797317353212_2735281869713419247_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=kQ9wbqrF24IAX8Nl27w&amp;oh=da744e68b43de29efdb967ad52e4bc03&amp;oe=606CCB27</t>
+  </si>
+  <si>
     <t>santoshishetty</t>
   </si>
   <si>
     <t>https://www.instagram.com/santoshishetty/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/135753914_316067349710406_2746718609638287875_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=KpF_pmxdgtIAX_iCLFj&amp;oh=27de6b1a3ee35e1a1280e10bcc13c5ba&amp;oe=606F1735</t>
+  </si>
+  <si>
     <t>selenagomez</t>
   </si>
   <si>
     <t>https://www.instagram.com/selenagomez/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/142428646_741794190097792_7655066869999087337_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=rDQg1dyPNMoAX-mMNEh&amp;oh=326acd897ea8f3fbddd04c6a0199cb06&amp;oe=606F2691</t>
+  </si>
+  <si>
     <t>sheetalthakur</t>
   </si>
   <si>
     <t>https://www.instagram.com/sheetalthakur/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/151021915_435517884443261_3056192132924732623_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=3eI95lDJ_1cAX9Jshhu&amp;oh=6a81c65bcde3cc83977d38609078f0a8&amp;oe=606E6147</t>
+  </si>
+  <si>
     <t>shraddhakapoor</t>
   </si>
   <si>
     <t>https://www.instagram.com/shraddhakapoor</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/132006147_3525493624236418_3556360009533074958_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=LQZQFS2s-QsAX9cVTXZ&amp;oh=798423650855b6c13567d20e6adc2859&amp;oe=606FE755</t>
+  </si>
+  <si>
     <t>shrutzhaasan</t>
   </si>
   <si>
     <t>https://www.instagram.com/shrutzhaasan/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/116715509_192030832269464_7016692450621786805_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=I5gjurDvsQcAX-VBtvR&amp;oh=c9e604f7f95795e43d20927772070c14&amp;oe=606F9FF4</t>
+  </si>
+  <si>
     <t>snoopdogg</t>
   </si>
   <si>
     <t>https://www.instagram.com/snoopdogg/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/25035888_2034036910163494_2165096634571030528_n.jpg?_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=ZX5_y6iIJsYAX-CIL6K&amp;oh=b3608b20090ac8337275e138d9f6e69f&amp;oe=606DA941</t>
+  </si>
+  <si>
     <t>sureshraina</t>
   </si>
   <si>
     <t>https://www.instagram.com/sureshraina3/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/157609250_452544476179008_7934145293332598331_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Uyvw21zz70IAX-t6A7v&amp;oh=6e6f4aeb385876df446e57265411314c&amp;oe=606D6155</t>
+  </si>
+  <si>
     <t>symmetrybreakfast</t>
   </si>
   <si>
     <t>https://www.instagram.com/symmetrybreakfast/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/107264821_317070939468595_3997356646275168373_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=0W1vSKp5eO0AX9WuJPz&amp;oh=45ca826641c0c5e328af7c59d77372ca&amp;oe=606F9ACF</t>
+  </si>
+  <si>
     <t>taylorswift</t>
   </si>
   <si>
     <t>https://www.instagram.com/taylorswift/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/148625996_2528569467439643_6135700788761342527_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=2vHuWYhebEcAX88lsdy&amp;oh=f4a578cacc5c242dfc8f311a74f98158&amp;oe=606EBC72</t>
+  </si>
+  <si>
     <t>Kritika Khurana</t>
   </si>
   <si>
     <t>https://www.instagram.com/thatbohogirl/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/64832466_616800438804255_5422918801345740800_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=pTfZENgeIQAAX-lVDxu&amp;oh=aa74fa466df370313817a225622d5f7c&amp;oe=606F4D54</t>
+  </si>
+  <si>
     <t>Pooja Mundhra</t>
   </si>
   <si>
     <t>https://www.instagram.com/thecozyvibe/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/153377805_113287310778859_7868462356150653209_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=Wy3dnJQ3g0EAX8pjhrn&amp;oh=751e338d5a13a308b627115f887b94a2&amp;oe=606E2F6C</t>
+  </si>
+  <si>
     <t>Karron S Dhinggra</t>
   </si>
   <si>
     <t>https://www.instagram.com/theformaledit/</t>
   </si>
   <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/120000779_3647453231956114_5923548680307285367_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=iVv8lBmnQr8AX9gmHo6&amp;oh=524a34b95c36c6c211e8283f98cf69e3&amp;oe=606E350B</t>
+  </si>
+  <si>
     <t>Heena M Panchal</t>
   </si>
   <si>
     <t>https://www.instagram.com/theofficialheena/</t>
+  </si>
+  <si>
+    <t>https://instagram.fdel27-1.fna.fbcdn.net/v/t51.2885-19/s320x320/152750902_742433426419062_1151246349839524898_n.jpg?tp=1&amp;_nc_ht=instagram.fdel27-1.fna.fbcdn.net&amp;_nc_ohc=VF1swfHdkeoAX86hovw&amp;oh=945437779f34e160073a757ddd3f5697&amp;oe=606E969B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1087,7 +1396,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1099,15 +1411,49 @@
     </font>
     <font>
       <u/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1116,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1132,8 +1478,23 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1713,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="46.14"/>
+    <col customWidth="1" min="2" max="2" width="55.57"/>
+    <col customWidth="1" min="3" max="3" width="130.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1362,1621 +1724,2027 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>99</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>82</v>
+        <v>120</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>86</v>
+        <v>126</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>94</v>
+        <v>138</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>144</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>98</v>
+        <v>144</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>100</v>
+      <c r="A54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>102</v>
+      <c r="A55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>104</v>
+      <c r="A56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>106</v>
+      <c r="A57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>108</v>
+      <c r="A58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>110</v>
+      <c r="A59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>112</v>
+      <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>114</v>
+      <c r="A61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>116</v>
+      <c r="A62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>118</v>
+      <c r="A63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>120</v>
+      <c r="A64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>122</v>
+      <c r="A65" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>124</v>
+      <c r="A66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>126</v>
+      <c r="A67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>128</v>
+      <c r="A68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>130</v>
+      <c r="A69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>132</v>
+      <c r="A70" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>134</v>
+      <c r="A71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>136</v>
+      <c r="A72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>138</v>
+      <c r="A73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>140</v>
+        <v>207</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>142</v>
+        <v>210</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>144</v>
+        <v>213</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>146</v>
+        <v>216</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>148</v>
+        <v>219</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>150</v>
+        <v>222</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>152</v>
+        <v>225</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>154</v>
+        <v>228</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>156</v>
+        <v>231</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>158</v>
+        <v>234</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>160</v>
+        <v>237</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>162</v>
+        <v>240</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>164</v>
+        <v>243</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>166</v>
+        <v>246</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>168</v>
+        <v>249</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>170</v>
+        <v>252</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>172</v>
+        <v>255</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>174</v>
+        <v>258</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>176</v>
+        <v>261</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>178</v>
+        <v>264</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>180</v>
+        <v>267</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>182</v>
+        <v>270</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>184</v>
+        <v>273</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>186</v>
+        <v>276</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>188</v>
+        <v>279</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>190</v>
+        <v>282</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>192</v>
+        <v>285</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>194</v>
+        <v>288</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>196</v>
+        <v>291</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>198</v>
+        <v>294</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>200</v>
+        <v>297</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>202</v>
+        <v>300</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>204</v>
+        <v>303</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>206</v>
+        <v>306</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>208</v>
+        <v>309</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>210</v>
+        <v>312</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>212</v>
+        <v>315</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>214</v>
+        <v>318</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>216</v>
+        <v>321</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>218</v>
+        <v>324</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>220</v>
+        <v>327</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>222</v>
+        <v>330</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>333</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>226</v>
+        <v>336</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>228</v>
+        <v>339</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>230</v>
+        <v>342</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>232</v>
+        <v>345</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>234</v>
+        <v>348</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>236</v>
+        <v>351</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>238</v>
+        <v>354</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>240</v>
+        <v>357</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>242</v>
+        <v>360</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>244</v>
+        <v>363</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>246</v>
+        <v>366</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>248</v>
+        <v>369</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>250</v>
+        <v>372</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>252</v>
+        <v>375</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>254</v>
+        <v>378</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>256</v>
+        <v>381</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>258</v>
+        <v>384</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>260</v>
+        <v>387</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>262</v>
+        <v>390</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>264</v>
+        <v>393</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>266</v>
+        <v>396</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>268</v>
+        <v>399</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>270</v>
+        <v>402</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>272</v>
+        <v>405</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>274</v>
+        <v>408</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>276</v>
+        <v>411</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>278</v>
+        <v>414</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>280</v>
+        <v>417</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>282</v>
+        <v>420</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>284</v>
+        <v>423</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>286</v>
+        <v>426</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>288</v>
+        <v>429</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>290</v>
+        <v>432</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>292</v>
+        <v>435</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>294</v>
+        <v>438</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>296</v>
+        <v>441</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>298</v>
+        <v>444</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>300</v>
+        <v>447</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>302</v>
+        <v>450</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>352</v>
+        <v>453</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="B24"/>
-    <hyperlink r:id="rId24" ref="B25"/>
-    <hyperlink r:id="rId25" ref="B26"/>
-    <hyperlink r:id="rId26" ref="B27"/>
-    <hyperlink r:id="rId27" ref="B28"/>
-    <hyperlink r:id="rId28" ref="B29"/>
-    <hyperlink r:id="rId29" ref="B30"/>
-    <hyperlink r:id="rId30" ref="B31"/>
-    <hyperlink r:id="rId31" ref="B32"/>
-    <hyperlink r:id="rId32" ref="B33"/>
-    <hyperlink r:id="rId33" ref="B34"/>
-    <hyperlink r:id="rId34" ref="B35"/>
-    <hyperlink r:id="rId35" ref="B36"/>
-    <hyperlink r:id="rId36" ref="B37"/>
-    <hyperlink r:id="rId37" ref="B38"/>
-    <hyperlink r:id="rId38" ref="B39"/>
-    <hyperlink r:id="rId39" ref="B40"/>
-    <hyperlink r:id="rId40" ref="B41"/>
-    <hyperlink r:id="rId41" ref="B42"/>
-    <hyperlink r:id="rId42" ref="B43"/>
-    <hyperlink r:id="rId43" ref="B44"/>
-    <hyperlink r:id="rId44" ref="B45"/>
-    <hyperlink r:id="rId45" ref="B46"/>
-    <hyperlink r:id="rId46" ref="B47"/>
-    <hyperlink r:id="rId47" ref="B48"/>
-    <hyperlink r:id="rId48" ref="B49"/>
-    <hyperlink r:id="rId49" ref="B50"/>
-    <hyperlink r:id="rId50" ref="B51"/>
-    <hyperlink r:id="rId51" ref="B52"/>
-    <hyperlink r:id="rId52" ref="B53"/>
-    <hyperlink r:id="rId53" ref="B54"/>
-    <hyperlink r:id="rId54" ref="B55"/>
-    <hyperlink r:id="rId55" ref="B56"/>
-    <hyperlink r:id="rId56" ref="B57"/>
-    <hyperlink r:id="rId57" ref="B58"/>
-    <hyperlink r:id="rId58" ref="B59"/>
-    <hyperlink r:id="rId59" ref="B60"/>
-    <hyperlink r:id="rId60" ref="B61"/>
-    <hyperlink r:id="rId61" ref="B62"/>
-    <hyperlink r:id="rId62" ref="B63"/>
-    <hyperlink r:id="rId63" ref="B64"/>
-    <hyperlink r:id="rId64" ref="B65"/>
-    <hyperlink r:id="rId65" ref="B66"/>
-    <hyperlink r:id="rId66" ref="B67"/>
-    <hyperlink r:id="rId67" ref="B68"/>
-    <hyperlink r:id="rId68" ref="B69"/>
-    <hyperlink r:id="rId69" ref="B70"/>
-    <hyperlink r:id="rId70" ref="B71"/>
-    <hyperlink r:id="rId71" ref="B72"/>
-    <hyperlink r:id="rId72" ref="B73"/>
-    <hyperlink r:id="rId73" ref="B74"/>
-    <hyperlink r:id="rId74" ref="B75"/>
-    <hyperlink r:id="rId75" ref="B76"/>
-    <hyperlink r:id="rId76" ref="B77"/>
-    <hyperlink r:id="rId77" ref="B78"/>
-    <hyperlink r:id="rId78" ref="B79"/>
-    <hyperlink r:id="rId79" ref="B80"/>
-    <hyperlink r:id="rId80" ref="B81"/>
-    <hyperlink r:id="rId81" ref="B82"/>
-    <hyperlink r:id="rId82" ref="B83"/>
-    <hyperlink r:id="rId83" ref="B84"/>
-    <hyperlink r:id="rId84" ref="B85"/>
-    <hyperlink r:id="rId85" ref="B86"/>
-    <hyperlink r:id="rId86" ref="B87"/>
-    <hyperlink r:id="rId87" ref="B88"/>
-    <hyperlink r:id="rId88" ref="B89"/>
-    <hyperlink r:id="rId89" ref="B90"/>
-    <hyperlink r:id="rId90" ref="B91"/>
-    <hyperlink r:id="rId91" ref="B92"/>
-    <hyperlink r:id="rId92" ref="B93"/>
-    <hyperlink r:id="rId93" ref="B94"/>
-    <hyperlink r:id="rId94" ref="B95"/>
-    <hyperlink r:id="rId95" ref="B96"/>
-    <hyperlink r:id="rId96" ref="B97"/>
-    <hyperlink r:id="rId97" ref="B98"/>
-    <hyperlink r:id="rId98" ref="B99"/>
-    <hyperlink r:id="rId99" ref="B100"/>
-    <hyperlink r:id="rId100" ref="B101"/>
-    <hyperlink r:id="rId101" ref="B102"/>
-    <hyperlink r:id="rId102" ref="B103"/>
-    <hyperlink r:id="rId103" ref="B104"/>
-    <hyperlink r:id="rId104" ref="B105"/>
-    <hyperlink r:id="rId105" ref="B106"/>
-    <hyperlink r:id="rId106" ref="B107"/>
-    <hyperlink r:id="rId107" ref="B108"/>
-    <hyperlink r:id="rId108" ref="B109"/>
-    <hyperlink r:id="rId109" ref="B110"/>
-    <hyperlink r:id="rId110" ref="B111"/>
-    <hyperlink r:id="rId111" ref="B112"/>
-    <hyperlink r:id="rId112" ref="B113"/>
-    <hyperlink r:id="rId113" ref="B114"/>
-    <hyperlink r:id="rId114" ref="B115"/>
-    <hyperlink r:id="rId115" ref="B116"/>
-    <hyperlink r:id="rId116" ref="B117"/>
-    <hyperlink r:id="rId117" ref="B118"/>
-    <hyperlink r:id="rId118" ref="B119"/>
-    <hyperlink r:id="rId119" ref="B120"/>
-    <hyperlink r:id="rId120" ref="B121"/>
-    <hyperlink r:id="rId121" ref="B122"/>
-    <hyperlink r:id="rId122" ref="B123"/>
-    <hyperlink r:id="rId123" ref="B124"/>
-    <hyperlink r:id="rId124" ref="B125"/>
-    <hyperlink r:id="rId125" ref="B126"/>
-    <hyperlink r:id="rId126" ref="B127"/>
-    <hyperlink r:id="rId127" ref="B128"/>
-    <hyperlink r:id="rId128" ref="B129"/>
-    <hyperlink r:id="rId129" ref="B130"/>
-    <hyperlink r:id="rId130" ref="B131"/>
-    <hyperlink r:id="rId131" ref="B132"/>
-    <hyperlink r:id="rId132" ref="B133"/>
-    <hyperlink r:id="rId133" ref="B134"/>
-    <hyperlink r:id="rId134" ref="B135"/>
-    <hyperlink r:id="rId135" ref="B136"/>
-    <hyperlink r:id="rId136" ref="B137"/>
-    <hyperlink r:id="rId137" ref="B138"/>
-    <hyperlink r:id="rId138" ref="B139"/>
-    <hyperlink r:id="rId139" ref="B140"/>
-    <hyperlink r:id="rId140" ref="B141"/>
-    <hyperlink r:id="rId141" ref="B142"/>
-    <hyperlink r:id="rId142" ref="B143"/>
-    <hyperlink r:id="rId143" ref="B144"/>
-    <hyperlink r:id="rId144" ref="B145"/>
-    <hyperlink r:id="rId145" ref="B146"/>
-    <hyperlink r:id="rId146" ref="B147"/>
-    <hyperlink r:id="rId147" ref="B148"/>
-    <hyperlink r:id="rId148" ref="B149"/>
-    <hyperlink r:id="rId149" ref="B150"/>
-    <hyperlink r:id="rId150" ref="B151"/>
-    <hyperlink r:id="rId151" ref="B152"/>
-    <hyperlink r:id="rId152" ref="B153"/>
-    <hyperlink r:id="rId153" ref="B154"/>
-    <hyperlink r:id="rId154" ref="B155"/>
-    <hyperlink r:id="rId155" ref="B156"/>
-    <hyperlink r:id="rId156" ref="B157"/>
-    <hyperlink r:id="rId157" ref="B158"/>
-    <hyperlink r:id="rId158" ref="B159"/>
-    <hyperlink r:id="rId159" ref="B160"/>
-    <hyperlink r:id="rId160" ref="B161"/>
-    <hyperlink r:id="rId161" ref="B162"/>
-    <hyperlink r:id="rId162" ref="B163"/>
-    <hyperlink r:id="rId163" ref="B164"/>
-    <hyperlink r:id="rId164" ref="B165"/>
-    <hyperlink r:id="rId165" ref="B166"/>
-    <hyperlink r:id="rId166" ref="B167"/>
-    <hyperlink r:id="rId167" ref="B168"/>
-    <hyperlink r:id="rId168" ref="B169"/>
-    <hyperlink r:id="rId169" ref="B170"/>
-    <hyperlink r:id="rId170" ref="B171"/>
-    <hyperlink r:id="rId171" ref="B172"/>
-    <hyperlink r:id="rId172" ref="B173"/>
-    <hyperlink r:id="rId173" ref="B174"/>
-    <hyperlink r:id="rId174" ref="B175"/>
-    <hyperlink r:id="rId175" ref="B176"/>
-    <hyperlink r:id="rId176" ref="B177"/>
-    <hyperlink r:id="rId177" ref="B178"/>
-    <hyperlink r:id="rId178" ref="B179"/>
-    <hyperlink r:id="rId179" ref="B180"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="B4"/>
+    <hyperlink r:id="rId6" ref="C4"/>
+    <hyperlink r:id="rId7" ref="B5"/>
+    <hyperlink r:id="rId8" ref="C5"/>
+    <hyperlink r:id="rId9" ref="B6"/>
+    <hyperlink r:id="rId10" ref="C6"/>
+    <hyperlink r:id="rId11" ref="B7"/>
+    <hyperlink r:id="rId12" ref="C7"/>
+    <hyperlink r:id="rId13" ref="B8"/>
+    <hyperlink r:id="rId14" ref="C8"/>
+    <hyperlink r:id="rId15" ref="B9"/>
+    <hyperlink r:id="rId16" ref="C9"/>
+    <hyperlink r:id="rId17" ref="B10"/>
+    <hyperlink r:id="rId18" ref="B11"/>
+    <hyperlink r:id="rId19" ref="C11"/>
+    <hyperlink r:id="rId20" ref="B12"/>
+    <hyperlink r:id="rId21" ref="C12"/>
+    <hyperlink r:id="rId22" ref="B13"/>
+    <hyperlink r:id="rId23" ref="C13"/>
+    <hyperlink r:id="rId24" ref="B14"/>
+    <hyperlink r:id="rId25" ref="C14"/>
+    <hyperlink r:id="rId26" ref="B15"/>
+    <hyperlink r:id="rId27" ref="C15"/>
+    <hyperlink r:id="rId28" ref="B16"/>
+    <hyperlink r:id="rId29" ref="C16"/>
+    <hyperlink r:id="rId30" ref="B17"/>
+    <hyperlink r:id="rId31" ref="C17"/>
+    <hyperlink r:id="rId32" ref="B18"/>
+    <hyperlink r:id="rId33" ref="C18"/>
+    <hyperlink r:id="rId34" ref="B19"/>
+    <hyperlink r:id="rId35" ref="C19"/>
+    <hyperlink r:id="rId36" ref="B20"/>
+    <hyperlink r:id="rId37" ref="C20"/>
+    <hyperlink r:id="rId38" ref="B21"/>
+    <hyperlink r:id="rId39" ref="C21"/>
+    <hyperlink r:id="rId40" ref="B22"/>
+    <hyperlink r:id="rId41" ref="C22"/>
+    <hyperlink r:id="rId42" ref="B23"/>
+    <hyperlink r:id="rId43" ref="C23"/>
+    <hyperlink r:id="rId44" ref="B24"/>
+    <hyperlink r:id="rId45" ref="C24"/>
+    <hyperlink r:id="rId46" ref="B25"/>
+    <hyperlink r:id="rId47" ref="C25"/>
+    <hyperlink r:id="rId48" ref="B26"/>
+    <hyperlink r:id="rId49" ref="C26"/>
+    <hyperlink r:id="rId50" ref="B27"/>
+    <hyperlink r:id="rId51" ref="C27"/>
+    <hyperlink r:id="rId52" ref="B28"/>
+    <hyperlink r:id="rId53" ref="C28"/>
+    <hyperlink r:id="rId54" ref="B29"/>
+    <hyperlink r:id="rId55" ref="C29"/>
+    <hyperlink r:id="rId56" ref="B30"/>
+    <hyperlink r:id="rId57" ref="C30"/>
+    <hyperlink r:id="rId58" ref="B31"/>
+    <hyperlink r:id="rId59" ref="C31"/>
+    <hyperlink r:id="rId60" ref="B32"/>
+    <hyperlink r:id="rId61" ref="C32"/>
+    <hyperlink r:id="rId62" ref="B33"/>
+    <hyperlink r:id="rId63" ref="C33"/>
+    <hyperlink r:id="rId64" ref="B34"/>
+    <hyperlink r:id="rId65" ref="C34"/>
+    <hyperlink r:id="rId66" ref="B35"/>
+    <hyperlink r:id="rId67" ref="C35"/>
+    <hyperlink r:id="rId68" ref="B36"/>
+    <hyperlink r:id="rId69" ref="C36"/>
+    <hyperlink r:id="rId70" ref="B37"/>
+    <hyperlink r:id="rId71" ref="C37"/>
+    <hyperlink r:id="rId72" ref="B38"/>
+    <hyperlink r:id="rId73" ref="C38"/>
+    <hyperlink r:id="rId74" ref="B39"/>
+    <hyperlink r:id="rId75" ref="C39"/>
+    <hyperlink r:id="rId76" ref="B40"/>
+    <hyperlink r:id="rId77" ref="C40"/>
+    <hyperlink r:id="rId78" ref="B41"/>
+    <hyperlink r:id="rId79" ref="C41"/>
+    <hyperlink r:id="rId80" ref="B42"/>
+    <hyperlink r:id="rId81" ref="C42"/>
+    <hyperlink r:id="rId82" ref="B43"/>
+    <hyperlink r:id="rId83" ref="C43"/>
+    <hyperlink r:id="rId84" ref="B44"/>
+    <hyperlink r:id="rId85" ref="C44"/>
+    <hyperlink r:id="rId86" ref="B45"/>
+    <hyperlink r:id="rId87" ref="C45"/>
+    <hyperlink r:id="rId88" ref="B46"/>
+    <hyperlink r:id="rId89" ref="C46"/>
+    <hyperlink r:id="rId90" ref="B47"/>
+    <hyperlink r:id="rId91" ref="C47"/>
+    <hyperlink r:id="rId92" ref="B48"/>
+    <hyperlink r:id="rId93" ref="C48"/>
+    <hyperlink r:id="rId94" ref="B49"/>
+    <hyperlink r:id="rId95" ref="C49"/>
+    <hyperlink r:id="rId96" ref="B50"/>
+    <hyperlink r:id="rId97" ref="C50"/>
+    <hyperlink r:id="rId98" ref="B51"/>
+    <hyperlink r:id="rId99" ref="C51"/>
+    <hyperlink r:id="rId100" ref="B52"/>
+    <hyperlink r:id="rId101" ref="C52"/>
+    <hyperlink r:id="rId102" ref="B53"/>
+    <hyperlink r:id="rId103" ref="C53"/>
+    <hyperlink r:id="rId104" ref="B54"/>
+    <hyperlink r:id="rId105" ref="C54"/>
+    <hyperlink r:id="rId106" ref="B55"/>
+    <hyperlink r:id="rId107" ref="C55"/>
+    <hyperlink r:id="rId108" ref="B56"/>
+    <hyperlink r:id="rId109" ref="C56"/>
+    <hyperlink r:id="rId110" ref="B57"/>
+    <hyperlink r:id="rId111" ref="C57"/>
+    <hyperlink r:id="rId112" ref="B58"/>
+    <hyperlink r:id="rId113" ref="C58"/>
+    <hyperlink r:id="rId114" ref="B59"/>
+    <hyperlink r:id="rId115" ref="C59"/>
+    <hyperlink r:id="rId116" ref="B60"/>
+    <hyperlink r:id="rId117" ref="C60"/>
+    <hyperlink r:id="rId118" ref="B61"/>
+    <hyperlink r:id="rId119" ref="C61"/>
+    <hyperlink r:id="rId120" ref="B62"/>
+    <hyperlink r:id="rId121" ref="C62"/>
+    <hyperlink r:id="rId122" ref="B63"/>
+    <hyperlink r:id="rId123" ref="C63"/>
+    <hyperlink r:id="rId124" ref="B64"/>
+    <hyperlink r:id="rId125" ref="C64"/>
+    <hyperlink r:id="rId126" ref="B65"/>
+    <hyperlink r:id="rId127" ref="C65"/>
+    <hyperlink r:id="rId128" ref="B66"/>
+    <hyperlink r:id="rId129" ref="C66"/>
+    <hyperlink r:id="rId130" ref="B67"/>
+    <hyperlink r:id="rId131" ref="C67"/>
+    <hyperlink r:id="rId132" ref="B68"/>
+    <hyperlink r:id="rId133" ref="C68"/>
+    <hyperlink r:id="rId134" ref="B69"/>
+    <hyperlink r:id="rId135" ref="C69"/>
+    <hyperlink r:id="rId136" ref="B70"/>
+    <hyperlink r:id="rId137" ref="C70"/>
+    <hyperlink r:id="rId138" ref="B71"/>
+    <hyperlink r:id="rId139" ref="C71"/>
+    <hyperlink r:id="rId140" ref="B72"/>
+    <hyperlink r:id="rId141" ref="C72"/>
+    <hyperlink r:id="rId142" ref="B73"/>
+    <hyperlink r:id="rId143" ref="C73"/>
+    <hyperlink r:id="rId144" ref="B74"/>
+    <hyperlink r:id="rId145" ref="C74"/>
+    <hyperlink r:id="rId146" ref="B75"/>
+    <hyperlink r:id="rId147" ref="C75"/>
+    <hyperlink r:id="rId148" ref="B76"/>
+    <hyperlink r:id="rId149" ref="C76"/>
+    <hyperlink r:id="rId150" ref="B77"/>
+    <hyperlink r:id="rId151" ref="C77"/>
+    <hyperlink r:id="rId152" ref="B78"/>
+    <hyperlink r:id="rId153" ref="C78"/>
+    <hyperlink r:id="rId154" ref="B79"/>
+    <hyperlink r:id="rId155" ref="C79"/>
+    <hyperlink r:id="rId156" ref="B80"/>
+    <hyperlink r:id="rId157" ref="C80"/>
+    <hyperlink r:id="rId158" ref="B81"/>
+    <hyperlink r:id="rId159" ref="C81"/>
+    <hyperlink r:id="rId160" ref="B82"/>
+    <hyperlink r:id="rId161" ref="C82"/>
+    <hyperlink r:id="rId162" ref="B83"/>
+    <hyperlink r:id="rId163" ref="C83"/>
+    <hyperlink r:id="rId164" ref="B84"/>
+    <hyperlink r:id="rId165" ref="C84"/>
+    <hyperlink r:id="rId166" ref="B85"/>
+    <hyperlink r:id="rId167" ref="C85"/>
+    <hyperlink r:id="rId168" ref="B86"/>
+    <hyperlink r:id="rId169" ref="C86"/>
+    <hyperlink r:id="rId170" ref="B87"/>
+    <hyperlink r:id="rId171" ref="C87"/>
+    <hyperlink r:id="rId172" ref="B88"/>
+    <hyperlink r:id="rId173" ref="C88"/>
+    <hyperlink r:id="rId174" ref="B89"/>
+    <hyperlink r:id="rId175" ref="C89"/>
+    <hyperlink r:id="rId176" ref="B90"/>
+    <hyperlink r:id="rId177" ref="C90"/>
+    <hyperlink r:id="rId178" ref="B91"/>
+    <hyperlink r:id="rId179" ref="C91"/>
+    <hyperlink r:id="rId180" ref="B92"/>
+    <hyperlink r:id="rId181" ref="C92"/>
+    <hyperlink r:id="rId182" ref="B93"/>
+    <hyperlink r:id="rId183" ref="C93"/>
+    <hyperlink r:id="rId184" ref="B94"/>
+    <hyperlink r:id="rId185" ref="C94"/>
+    <hyperlink r:id="rId186" ref="B95"/>
+    <hyperlink r:id="rId187" ref="C95"/>
+    <hyperlink r:id="rId188" ref="B96"/>
+    <hyperlink r:id="rId189" ref="C96"/>
+    <hyperlink r:id="rId190" ref="B97"/>
+    <hyperlink r:id="rId191" ref="C97"/>
+    <hyperlink r:id="rId192" ref="B98"/>
+    <hyperlink r:id="rId193" ref="C98"/>
+    <hyperlink r:id="rId194" ref="B99"/>
+    <hyperlink r:id="rId195" ref="C99"/>
+    <hyperlink r:id="rId196" ref="B100"/>
+    <hyperlink r:id="rId197" ref="C100"/>
+    <hyperlink r:id="rId198" ref="B101"/>
+    <hyperlink r:id="rId199" ref="C101"/>
+    <hyperlink r:id="rId200" ref="B102"/>
+    <hyperlink r:id="rId201" ref="C102"/>
+    <hyperlink r:id="rId202" ref="B103"/>
+    <hyperlink r:id="rId203" ref="C103"/>
+    <hyperlink r:id="rId204" ref="B104"/>
+    <hyperlink r:id="rId205" ref="C104"/>
+    <hyperlink r:id="rId206" ref="B105"/>
+    <hyperlink r:id="rId207" ref="C105"/>
+    <hyperlink r:id="rId208" ref="B106"/>
+    <hyperlink r:id="rId209" ref="C106"/>
+    <hyperlink r:id="rId210" ref="B107"/>
+    <hyperlink r:id="rId211" ref="C107"/>
+    <hyperlink r:id="rId212" ref="B108"/>
+    <hyperlink r:id="rId213" ref="C108"/>
+    <hyperlink r:id="rId214" ref="B109"/>
+    <hyperlink r:id="rId215" ref="C109"/>
+    <hyperlink r:id="rId216" ref="B110"/>
+    <hyperlink r:id="rId217" ref="C110"/>
+    <hyperlink r:id="rId218" ref="B111"/>
+    <hyperlink r:id="rId219" ref="C111"/>
+    <hyperlink r:id="rId220" ref="B112"/>
+    <hyperlink r:id="rId221" ref="C112"/>
+    <hyperlink r:id="rId222" ref="B113"/>
+    <hyperlink r:id="rId223" ref="C113"/>
+    <hyperlink r:id="rId224" ref="B114"/>
+    <hyperlink r:id="rId225" ref="C114"/>
+    <hyperlink r:id="rId226" ref="B115"/>
+    <hyperlink r:id="rId227" ref="C115"/>
+    <hyperlink r:id="rId228" ref="B116"/>
+    <hyperlink r:id="rId229" ref="C116"/>
+    <hyperlink r:id="rId230" ref="B117"/>
+    <hyperlink r:id="rId231" ref="C117"/>
+    <hyperlink r:id="rId232" ref="B118"/>
+    <hyperlink r:id="rId233" ref="C118"/>
+    <hyperlink r:id="rId234" ref="B119"/>
+    <hyperlink r:id="rId235" ref="C119"/>
+    <hyperlink r:id="rId236" ref="B120"/>
+    <hyperlink r:id="rId237" ref="C120"/>
+    <hyperlink r:id="rId238" ref="B121"/>
+    <hyperlink r:id="rId239" ref="C121"/>
+    <hyperlink r:id="rId240" ref="B122"/>
+    <hyperlink r:id="rId241" ref="C122"/>
+    <hyperlink r:id="rId242" ref="B123"/>
+    <hyperlink r:id="rId243" ref="C123"/>
+    <hyperlink r:id="rId244" ref="B124"/>
+    <hyperlink r:id="rId245" ref="C124"/>
+    <hyperlink r:id="rId246" ref="B125"/>
+    <hyperlink r:id="rId247" ref="C125"/>
+    <hyperlink r:id="rId248" ref="B126"/>
+    <hyperlink r:id="rId249" ref="C126"/>
+    <hyperlink r:id="rId250" ref="B127"/>
+    <hyperlink r:id="rId251" ref="C127"/>
+    <hyperlink r:id="rId252" ref="B128"/>
+    <hyperlink r:id="rId253" ref="C128"/>
+    <hyperlink r:id="rId254" ref="B129"/>
+    <hyperlink r:id="rId255" ref="C129"/>
+    <hyperlink r:id="rId256" ref="B130"/>
+    <hyperlink r:id="rId257" ref="C130"/>
+    <hyperlink r:id="rId258" ref="B131"/>
+    <hyperlink r:id="rId259" ref="C131"/>
+    <hyperlink r:id="rId260" ref="B132"/>
+    <hyperlink r:id="rId261" ref="C132"/>
+    <hyperlink r:id="rId262" ref="B133"/>
+    <hyperlink r:id="rId263" ref="C133"/>
+    <hyperlink r:id="rId264" ref="B134"/>
+    <hyperlink r:id="rId265" ref="C134"/>
+    <hyperlink r:id="rId266" ref="B135"/>
+    <hyperlink r:id="rId267" ref="C135"/>
+    <hyperlink r:id="rId268" ref="B136"/>
+    <hyperlink r:id="rId269" ref="C136"/>
+    <hyperlink r:id="rId270" ref="B137"/>
+    <hyperlink r:id="rId271" ref="C137"/>
+    <hyperlink r:id="rId272" ref="B138"/>
+    <hyperlink r:id="rId273" ref="C138"/>
+    <hyperlink r:id="rId274" ref="B139"/>
+    <hyperlink r:id="rId275" ref="C139"/>
+    <hyperlink r:id="rId276" ref="B140"/>
+    <hyperlink r:id="rId277" ref="C140"/>
+    <hyperlink r:id="rId278" ref="B141"/>
+    <hyperlink r:id="rId279" ref="C141"/>
+    <hyperlink r:id="rId280" ref="B142"/>
+    <hyperlink r:id="rId281" ref="C142"/>
+    <hyperlink r:id="rId282" ref="B143"/>
+    <hyperlink r:id="rId283" ref="C143"/>
+    <hyperlink r:id="rId284" ref="B144"/>
+    <hyperlink r:id="rId285" ref="C144"/>
+    <hyperlink r:id="rId286" ref="B145"/>
+    <hyperlink r:id="rId287" ref="C145"/>
+    <hyperlink r:id="rId288" ref="B146"/>
+    <hyperlink r:id="rId289" ref="C146"/>
+    <hyperlink r:id="rId290" ref="B147"/>
+    <hyperlink r:id="rId291" ref="C147"/>
+    <hyperlink r:id="rId292" ref="B148"/>
+    <hyperlink r:id="rId293" ref="C148"/>
+    <hyperlink r:id="rId294" ref="B149"/>
+    <hyperlink r:id="rId295" ref="C149"/>
+    <hyperlink r:id="rId296" ref="B150"/>
+    <hyperlink r:id="rId297" ref="C150"/>
+    <hyperlink r:id="rId298" ref="B151"/>
+    <hyperlink r:id="rId299" ref="C151"/>
+    <hyperlink r:id="rId300" ref="B152"/>
+    <hyperlink r:id="rId301" ref="C152"/>
+    <hyperlink r:id="rId302" ref="B153"/>
+    <hyperlink r:id="rId303" ref="C153"/>
+    <hyperlink r:id="rId304" ref="B154"/>
+    <hyperlink r:id="rId305" ref="C154"/>
+    <hyperlink r:id="rId306" ref="B155"/>
+    <hyperlink r:id="rId307" ref="C155"/>
+    <hyperlink r:id="rId308" ref="B156"/>
+    <hyperlink r:id="rId309" ref="C156"/>
   </hyperlinks>
-  <drawing r:id="rId180"/>
+  <drawing r:id="rId310"/>
 </worksheet>
 </file>